--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73502084c1978156/Documents/Project/암호해독기/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73502084c1978156/Documents/Project/암호해독기/stchun.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0D90E621-A0F4-4298-91B1-349AE080D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3978454-7A38-4446-8B04-93F8CCDA6103}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0D90E621-A0F4-4298-91B1-349AE080D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DD5485-0CA1-4DEC-8339-4E91E6B00949}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22170" yWindow="15" windowWidth="6720" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>평문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,46 @@
   </si>
   <si>
     <t>레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,233 +698,273 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>64</v>
       </c>
     </row>
@@ -893,7 +973,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A6 A2:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>